--- a/STD_test_cases.xlsx
+++ b/STD_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Desktop\Testing_API_Twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F369F37-5278-4066-8D37-059493C08FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D6EE0D-2C1E-4747-9BCD-56C7A4EFEE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="104">
   <si>
     <t>Test Case's Name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Expected result</t>
   </si>
   <si>
-    <t>TestAPIUserDetails - test_get_user_details</t>
-  </si>
-  <si>
     <t>To validate retrieving user details from the API</t>
   </si>
   <si>
@@ -84,15 +81,6 @@
     <t>Configuration is loaded and available</t>
   </si>
   <si>
-    <t>Create an instance of APIUserDetails with the API request</t>
-  </si>
-  <si>
-    <t>APIUserDetails instance is created</t>
-  </si>
-  <si>
-    <t>Call get_user_details method on APIUserDetails instance</t>
-  </si>
-  <si>
     <t>API response is received</t>
   </si>
   <si>
@@ -108,33 +96,15 @@
     <t>The response status is OK</t>
   </si>
   <si>
-    <t>Assert that the username in the response body matches the expected username from the config</t>
-  </si>
-  <si>
     <t>username matches the expected value from the config</t>
   </si>
   <si>
-    <t>Assert that the user_id in the response body matches the expected user ID from the config</t>
-  </si>
-  <si>
     <t>user_id matches the expected value from the config</t>
   </si>
   <si>
-    <t>TestAPIUserDetails - test_post_user_details</t>
-  </si>
-  <si>
     <t>To validate posting user details to the API</t>
   </si>
   <si>
-    <t>API endpoint, configuration file with username_post and user_id_post</t>
-  </si>
-  <si>
-    <t>Create a UserDetails instance with username_post and user_id_post from the config</t>
-  </si>
-  <si>
-    <t>UserDetails instance is created</t>
-  </si>
-  <si>
     <t>Test Case 3</t>
   </si>
   <si>
@@ -144,24 +114,15 @@
     <t>Test Case 1</t>
   </si>
   <si>
-    <t>TestAPIUserFollowers - test_get_user_followers</t>
-  </si>
-  <si>
     <t>To validate getting user followers from the API</t>
   </si>
   <si>
-    <t>API endpoint, configuration file with follower_user_id and follower_user_name</t>
-  </si>
-  <si>
     <t>Create an instance of APIUserFollowers with the API request</t>
   </si>
   <si>
     <t>APIUserFollowers instance is created</t>
   </si>
   <si>
-    <t>Call get_user_followers method on APIUserFollowers instance</t>
-  </si>
-  <si>
     <t>Extract the results list from the response body</t>
   </si>
   <si>
@@ -171,9 +132,6 @@
     <t>Assert that the user_id of the second follower matches the expected follower_user_id from the config</t>
   </si>
   <si>
-    <t>Assert that the username of the second follower matches the expected follower_user_name from the config</t>
-  </si>
-  <si>
     <t>Test Case 4</t>
   </si>
   <si>
@@ -325,6 +283,60 @@
   </si>
   <si>
     <t>Call post_user_media method on APIUserMedia instance</t>
+  </si>
+  <si>
+    <t>Bahaa Abuzalaf</t>
+  </si>
+  <si>
+    <t>Get user details</t>
+  </si>
+  <si>
+    <t>Connection to the internet, Active twitter account</t>
+  </si>
+  <si>
+    <t>Send a GET request to the API endpoint https://twitter154.p.rapidapi.com/user/details?username={username}&amp;user_id={user_id} with valid headers</t>
+  </si>
+  <si>
+    <t>Request has been sent</t>
+  </si>
+  <si>
+    <t>With query string for the username and user_id</t>
+  </si>
+  <si>
+    <t>Receive response</t>
+  </si>
+  <si>
+    <t>Response has been receive</t>
+  </si>
+  <si>
+    <t>Check if the result is ok</t>
+  </si>
+  <si>
+    <t>The test passed</t>
+  </si>
+  <si>
+    <t>Confirm that the username in the response match the values sent in the request</t>
+  </si>
+  <si>
+    <t>Confirm that the user_id in the response match the values sent in the request</t>
+  </si>
+  <si>
+    <t>Post user details</t>
+  </si>
+  <si>
+    <t>Send a POST request to the API endpoint https://twitter154.p.rapidapi.com/user/details</t>
+  </si>
+  <si>
+    <t>With body for the username and user_id</t>
+  </si>
+  <si>
+    <t>Get user follower</t>
+  </si>
+  <si>
+    <t>Send a GET request to the API endpoint https://twitter154.p.rapidapi.com/user/followers?user_id=876463068653510656&amp;limit=10 with valid headers</t>
+  </si>
+  <si>
+    <t>With query string for the user_id and limit</t>
   </si>
 </sst>
 </file>
@@ -412,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -457,12 +469,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -498,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -509,9 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -532,6 +552,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -815,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,7 +859,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -844,8 +873,8 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>11</v>
+      <c r="B3" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="9"/>
     </row>
@@ -854,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -863,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -872,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -924,48 +953,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -973,44 +1002,38 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
+      <c r="B18" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>7</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B19" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -1051,7 +1074,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1065,8 +1088,8 @@
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>31</v>
+      <c r="B30" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="C30" s="9"/>
     </row>
@@ -1075,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C31" s="9"/>
     </row>
@@ -1084,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C32" s="9"/>
     </row>
@@ -1093,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C33" s="9"/>
     </row>
@@ -1145,104 +1168,86 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A43" s="13">
-        <v>4</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="26">
         <v>6</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>24</v>
+      <c r="B45" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <v>7</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>8</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <v>9</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A46" s="7"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="24"/>
+    </row>
+    <row r="47" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
@@ -1263,7 +1268,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -1277,8 +1282,8 @@
       <c r="A57" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>39</v>
+      <c r="B57" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="C57" s="9"/>
     </row>
@@ -1287,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C58" s="9"/>
     </row>
@@ -1296,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C59" s="9"/>
     </row>
@@ -1305,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C60" s="9"/>
     </row>
@@ -1357,48 +1362,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A70" s="13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
         <v>4</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>22</v>
+      <c r="B70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -1406,55 +1411,43 @@
         <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="26">
         <v>6</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B72" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>7</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
-        <v>8</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
-        <v>9</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B73" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
@@ -1475,54 +1468,54 @@
     </row>
     <row r="82" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
     </row>
     <row r="83" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
     </row>
     <row r="84" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="22" t="s">
-        <v>50</v>
+      <c r="B84" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="C84" s="16"/>
     </row>
     <row r="85" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C85" s="16"/>
     </row>
     <row r="86" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C86" s="16"/>
     </row>
     <row r="87" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C87" s="16"/>
     </row>
     <row r="88" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -1531,7 +1524,7 @@
       <c r="C88" s="16"/>
     </row>
     <row r="89" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B89" s="8">
@@ -1540,7 +1533,7 @@
       <c r="C89" s="16"/>
     </row>
     <row r="90" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B90" s="1">
@@ -1549,68 +1542,68 @@
       <c r="C90" s="16"/>
     </row>
     <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
     </row>
     <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
     </row>
     <row r="93" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="22">
+      <c r="A94" s="21">
         <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="1" t="s">
+    </row>
+    <row r="95" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="21">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="22">
-        <v>2</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="96" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="22">
+      <c r="A96" s="21">
         <v>3</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>4</v>
       </c>
-      <c r="B97" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>54</v>
+      <c r="B97" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="32.4" x14ac:dyDescent="0.35">
@@ -1618,54 +1611,54 @@
         <v>5</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C98" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="21">
+        <v>6</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="21">
+        <v>7</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="21">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="22">
-        <v>6</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" s="1" t="s">
+    <row r="102" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="21">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="22">
-        <v>7</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="22">
-        <v>8</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="22">
-        <v>9</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -1692,54 +1685,54 @@
     </row>
     <row r="109" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
     </row>
     <row r="110" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="17"/>
+      <c r="A110" s="13"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
     </row>
     <row r="111" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="22" t="s">
-        <v>57</v>
+      <c r="B111" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="C111" s="16"/>
     </row>
     <row r="112" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C112" s="16"/>
     </row>
     <row r="113" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C113" s="16"/>
     </row>
     <row r="114" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" s="16"/>
     </row>
     <row r="115" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -1748,7 +1741,7 @@
       <c r="C115" s="16"/>
     </row>
     <row r="116" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A116" s="18" t="s">
+      <c r="A116" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B116" s="8">
@@ -1757,7 +1750,7 @@
       <c r="C116" s="16"/>
     </row>
     <row r="117" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B117" s="1">
@@ -1766,68 +1759,68 @@
       <c r="C117" s="16"/>
     </row>
     <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="19"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
     </row>
     <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="19"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
     </row>
     <row r="120" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="20" t="s">
+      <c r="A120" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A121" s="22">
+      <c r="A121" s="21">
         <v>1</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C121" s="1" t="s">
+    </row>
+    <row r="122" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A122" s="21">
+        <v>2</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="22">
-        <v>2</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="123" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A123" s="22">
+      <c r="A123" s="21">
         <v>3</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="13">
         <v>4</v>
       </c>
-      <c r="B124" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>22</v>
+      <c r="B124" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
@@ -1835,54 +1828,54 @@
         <v>5</v>
       </c>
       <c r="B125" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="21">
+        <v>6</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="21">
+        <v>7</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A128" s="21">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A129" s="21">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A126" s="22">
-        <v>6</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="22">
-        <v>7</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A128" s="22">
-        <v>8</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A129" s="22">
-        <v>9</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -1909,54 +1902,54 @@
     </row>
     <row r="136" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
     </row>
     <row r="137" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A137" s="17"/>
+      <c r="A137" s="13"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
     </row>
     <row r="138" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A138" s="18" t="s">
+      <c r="A138" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B138" s="22" t="s">
-        <v>69</v>
+      <c r="B138" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="C138" s="16"/>
     </row>
     <row r="139" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A139" s="18" t="s">
+      <c r="A139" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C139" s="16"/>
     </row>
     <row r="140" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C140" s="16"/>
     </row>
     <row r="141" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="18" t="s">
+      <c r="A141" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C141" s="16"/>
     </row>
     <row r="142" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A142" s="18" t="s">
+      <c r="A142" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -1965,7 +1958,7 @@
       <c r="C142" s="16"/>
     </row>
     <row r="143" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="18" t="s">
+      <c r="A143" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B143" s="8">
@@ -1974,7 +1967,7 @@
       <c r="C143" s="16"/>
     </row>
     <row r="144" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B144" s="1">
@@ -1983,68 +1976,68 @@
       <c r="C144" s="16"/>
     </row>
     <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A145" s="19"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
+      <c r="A145" s="18"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
     </row>
     <row r="146" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A146" s="19"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
+      <c r="A146" s="18"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
     </row>
     <row r="147" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="20" t="s">
+      <c r="A147" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B147" s="21" t="s">
+      <c r="B147" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A148" s="22">
+      <c r="A148" s="21">
         <v>1</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C148" s="1" t="s">
+    </row>
+    <row r="149" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A149" s="21">
+        <v>2</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A149" s="22">
-        <v>2</v>
-      </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="150" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A150" s="22">
+      <c r="A150" s="21">
         <v>3</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>4</v>
       </c>
-      <c r="B151" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>61</v>
+      <c r="B151" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="32.4" x14ac:dyDescent="0.35">
@@ -2052,54 +2045,54 @@
         <v>5</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C152" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="21">
+        <v>6</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A154" s="21">
+        <v>7</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A155" s="21">
+        <v>8</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="22">
-        <v>6</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A154" s="22">
-        <v>7</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A155" s="22">
-        <v>8</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="156" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A156" s="22">
+      <c r="A156" s="21">
         <v>9</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
@@ -2107,10 +2100,10 @@
         <v>10</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -2132,78 +2125,78 @@
     </row>
     <row r="163" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A163" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B163" s="23"/>
-      <c r="C163" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="B163" s="22"/>
+      <c r="C163" s="22"/>
     </row>
     <row r="164" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A164" s="17"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="23"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
     </row>
     <row r="165" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A165" s="18" t="s">
+      <c r="A165" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C165" s="23"/>
+      <c r="B165" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C165" s="22"/>
     </row>
     <row r="166" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A166" s="18" t="s">
+      <c r="A166" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C166" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="C166" s="22"/>
     </row>
     <row r="167" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A167" s="18" t="s">
+      <c r="A167" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C167" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="C167" s="22"/>
     </row>
     <row r="168" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A168" s="18" t="s">
+      <c r="A168" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="C168" s="22"/>
     </row>
     <row r="169" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A169" s="18" t="s">
+      <c r="A169" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C169" s="23"/>
+      <c r="C169" s="22"/>
     </row>
     <row r="170" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A170" s="18" t="s">
+      <c r="A170" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B170" s="8">
         <v>45493</v>
       </c>
-      <c r="C170" s="23"/>
+      <c r="C170" s="22"/>
     </row>
     <row r="171" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B171" s="1">
         <v>1</v>
       </c>
-      <c r="C171" s="23"/>
+      <c r="C171" s="22"/>
     </row>
     <row r="172" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A172" s="14"/>
@@ -2216,47 +2209,47 @@
       <c r="C173" s="14"/>
     </row>
     <row r="174" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A174" s="20" t="s">
+      <c r="A174" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B174" s="21" t="s">
+      <c r="B174" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C174" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A175" s="22">
+      <c r="A175" s="21">
         <v>1</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="1" t="s">
+    </row>
+    <row r="176" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A176" s="21">
+        <v>2</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A176" s="22">
-        <v>2</v>
-      </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="177" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A177" s="22">
+      <c r="A177" s="21">
         <v>3</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="32.4" x14ac:dyDescent="0.35">
@@ -2264,10 +2257,10 @@
         <v>4</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
@@ -2275,65 +2268,65 @@
         <v>5</v>
       </c>
       <c r="B179" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A180" s="21">
+        <v>6</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="21">
+        <v>7</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A182" s="21">
+        <v>8</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A183" s="21">
+        <v>9</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A184" s="21">
+        <v>10</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C179" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A180" s="22">
-        <v>6</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A181" s="22">
-        <v>7</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A182" s="22">
-        <v>8</v>
-      </c>
-      <c r="B182" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C182" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A183" s="22">
-        <v>9</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A184" s="22">
-        <v>10</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -2355,78 +2348,78 @@
     </row>
     <row r="190" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A190" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B190" s="23"/>
-      <c r="C190" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="B190" s="22"/>
+      <c r="C190" s="22"/>
     </row>
     <row r="191" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A191" s="17"/>
-      <c r="B191" s="23"/>
-      <c r="C191" s="23"/>
+      <c r="A191" s="13"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
     </row>
     <row r="192" spans="1:5" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A192" s="18" t="s">
+      <c r="A192" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B192" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C192" s="23"/>
+      <c r="B192" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C192" s="22"/>
     </row>
     <row r="193" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A193" s="18" t="s">
+      <c r="A193" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C193" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="C193" s="22"/>
     </row>
     <row r="194" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A194" s="18" t="s">
+      <c r="A194" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C194" s="23"/>
+        <v>72</v>
+      </c>
+      <c r="C194" s="22"/>
     </row>
     <row r="195" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A195" s="18" t="s">
+      <c r="A195" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C195" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="C195" s="22"/>
     </row>
     <row r="196" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A196" s="18" t="s">
+      <c r="A196" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C196" s="23"/>
+      <c r="C196" s="22"/>
     </row>
     <row r="197" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A197" s="18" t="s">
+      <c r="A197" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B197" s="8">
         <v>45493</v>
       </c>
-      <c r="C197" s="23"/>
+      <c r="C197" s="22"/>
     </row>
     <row r="198" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A198" s="18" t="s">
+      <c r="A198" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B198" s="1">
         <v>1</v>
       </c>
-      <c r="C198" s="23"/>
+      <c r="C198" s="22"/>
     </row>
     <row r="199" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A199" s="14"/>
@@ -2439,47 +2432,47 @@
       <c r="C200" s="14"/>
     </row>
     <row r="201" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A201" s="20" t="s">
+      <c r="A201" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B201" s="21" t="s">
+      <c r="B201" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C201" s="21" t="s">
+      <c r="C201" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A202" s="22">
+      <c r="A202" s="21">
         <v>1</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C202" s="1" t="s">
+    </row>
+    <row r="203" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A203" s="21">
+        <v>2</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A203" s="22">
-        <v>2</v>
-      </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="204" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A204" s="22">
+      <c r="A204" s="21">
         <v>3</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
@@ -2487,10 +2480,10 @@
         <v>4</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
@@ -2498,52 +2491,52 @@
         <v>5</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C206" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A207" s="21">
+        <v>6</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A208" s="21">
+        <v>7</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="32.4" x14ac:dyDescent="0.35">
+      <c r="A209" s="21">
+        <v>8</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C209" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A207" s="22">
-        <v>6</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A208" s="22">
-        <v>7</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A209" s="22">
-        <v>8</v>
-      </c>
-      <c r="B209" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C209" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="210" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A210" s="22"/>
+      <c r="A210" s="21"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
     </row>
     <row r="211" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A211" s="22"/>
+      <c r="A211" s="21"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
     </row>
@@ -2566,78 +2559,78 @@
     </row>
     <row r="217" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A217" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B217" s="23"/>
-      <c r="C217" s="23"/>
+        <v>79</v>
+      </c>
+      <c r="B217" s="22"/>
+      <c r="C217" s="22"/>
     </row>
     <row r="218" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A218" s="17"/>
-      <c r="B218" s="23"/>
-      <c r="C218" s="23"/>
+      <c r="A218" s="13"/>
+      <c r="B218" s="22"/>
+      <c r="C218" s="22"/>
     </row>
     <row r="219" spans="1:5" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A219" s="18" t="s">
+      <c r="A219" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B219" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C219" s="23"/>
+      <c r="B219" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C219" s="22"/>
     </row>
     <row r="220" spans="1:5" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A220" s="18" t="s">
+      <c r="A220" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C220" s="23"/>
+        <v>81</v>
+      </c>
+      <c r="C220" s="22"/>
     </row>
     <row r="221" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A221" s="18" t="s">
+      <c r="A221" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C221" s="23"/>
+        <v>82</v>
+      </c>
+      <c r="C221" s="22"/>
     </row>
     <row r="222" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A222" s="18" t="s">
+      <c r="A222" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C222" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="C222" s="22"/>
     </row>
     <row r="223" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A223" s="18" t="s">
+      <c r="A223" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C223" s="23"/>
+      <c r="C223" s="22"/>
     </row>
     <row r="224" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A224" s="18" t="s">
+      <c r="A224" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B224" s="8">
         <v>45493</v>
       </c>
-      <c r="C224" s="23"/>
+      <c r="C224" s="22"/>
     </row>
     <row r="225" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A225" s="18" t="s">
+      <c r="A225" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B225" s="1">
         <v>1</v>
       </c>
-      <c r="C225" s="23"/>
+      <c r="C225" s="22"/>
     </row>
     <row r="226" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A226" s="14"/>
@@ -2650,58 +2643,58 @@
       <c r="C227" s="14"/>
     </row>
     <row r="228" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A228" s="20" t="s">
+      <c r="A228" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B228" s="21" t="s">
+      <c r="B228" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C228" s="21" t="s">
+      <c r="C228" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A229" s="22">
+      <c r="A229" s="21">
         <v>1</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C229" s="1" t="s">
+    </row>
+    <row r="230" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A230" s="21">
+        <v>2</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A230" s="22">
-        <v>2</v>
-      </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="231" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A231" s="24">
+      <c r="A231" s="23">
         <v>3</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A232" s="22">
+      <c r="A232" s="21">
         <v>4</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
@@ -2709,10 +2702,10 @@
         <v>5</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
@@ -2720,47 +2713,47 @@
         <v>6</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C234" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A235" s="21">
+        <v>7</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A236" s="21">
+        <v>8</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
+      <c r="A237" s="21">
+        <v>9</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C237" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A235" s="22">
-        <v>7</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A236" s="22">
-        <v>8</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A237" s="22">
-        <v>9</v>
-      </c>
-      <c r="B237" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C237" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="238" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A238" s="22"/>
+      <c r="A238" s="21"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
     </row>
@@ -2781,6 +2774,148 @@
       <c r="D241" s="11"/>
       <c r="E241" s="11"/>
     </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B244" s="9"/>
+      <c r="C244" s="9"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="3"/>
+      <c r="B245" s="9"/>
+      <c r="C245" s="9"/>
+    </row>
+    <row r="246" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A246" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246" s="21"/>
+      <c r="C246" s="9"/>
+    </row>
+    <row r="247" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A247" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="9"/>
+    </row>
+    <row r="248" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A248" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="9"/>
+    </row>
+    <row r="249" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A249" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="9"/>
+    </row>
+    <row r="250" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A250" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C250" s="9"/>
+    </row>
+    <row r="251" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A251" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" s="8">
+        <v>45493</v>
+      </c>
+      <c r="C251" s="9"/>
+    </row>
+    <row r="252" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A252" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="9"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="10"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="10"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="10"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="10"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A256" s="7">
+        <v>1</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A257" s="7">
+        <v>2</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A258" s="7">
+        <v>3</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A259" s="7">
+        <v>4</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A260" s="7">
+        <v>5</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A261" s="7">
+        <v>6</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A262" s="7">
+        <v>7</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+    </row>
+    <row r="263" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A263" s="7">
+        <v>8</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
